--- a/biology/Médecine/Études_de_médecine_au_Maroc/Études_de_médecine_au_Maroc.xlsx
+++ b/biology/Médecine/Études_de_médecine_au_Maroc/Études_de_médecine_au_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_au_Maroc</t>
+          <t>Études_de_médecine_au_Maroc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Maroc, les études de médecine sont parmi les études supérieures les plus longues. Elles constituent une formation théorique et pratique. À la fin du cursus, le futur médecin est habilité à faire de plus en plus d'actes, et reçoit finalement le diplôme d'État de docteur en médecine, à l’issue de la soutenance.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_au_Maroc</t>
+          <t>Études_de_médecine_au_Maroc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Déroulement des études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles se déroulent en trois cycles au sein de l'une des sept universités ayant une Faculté de médecine et de pharmacie associée à l'un des sept centres hospitaliers universitaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elles se déroulent en trois cycles au sein de l'une des sept universités ayant une Faculté de médecine et de pharmacie associée à l'un des sept centres hospitaliers universitaires.
 Leur durée totale varie de 6 ans (médecine générale) à 13 ans (spécialités).
 Les études se déroulent comme suit :
 un premier cycle de sciences pré-cliniques ;
@@ -523,17 +537,7 @@
 huitième année.
 L'accès à la spécialité médicale se fait de deux manières :
 la voie de l'internat du CHU ;
-la voie du concours de résidanat.
-Concours d'internat
-Les étudiants ayant réussi leur cinquième année et validé tous les stages peuvent passer le concours d'internat. Les internes valident deux années d'internat au CHU (quatre semestres : médecine, chirurgie, pédiatrie ou gynécologie obstétrique, stage de désidérata) à l'issue desquelles ils sont nommés résidents sur titre. Ils ont la priorité dans le choix de la spécialité.
-Concours de résidanat
-Les docteurs en médecine passent le concours de résidanat (qui a remplacé le DNS) et sont nommés résidents sur concours.
-La durée du résidanat varie de trois à cinq ans (3 ans la médecine du sport, 4 ans pour les spécialités médicales et la biologie, 5 ans pour les spécialités chirurgicales et la médecine interne).
-À la fin du résidanat un examen de fin de spécialité (le DSM) donne accès au diplôme de spécialité.
-La voie universitaire est accessible après la validation du résidanat et passage du concours de professeur assistant (anciennement réservé aux anciens internes et accessible actuellement aux deux voies).
-Réforme de 2023
-À noter qu'une réforme des études médicale est actuellement débattue[1] pour unifier les deux voies, revaloriser la médecine générale et créer des passerelles entre les filières (vu que dans le système actuel, le premier et le deuxième cycle ne donnent aucun débouché si on ne passe pas aux étapes suivantes jusqu'à la thèse de doctorat).
-</t>
+la voie du concours de résidanat.</t>
         </is>
       </c>
     </row>
@@ -543,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tudes_de_m%C3%A9decine_au_Maroc</t>
+          <t>Études_de_médecine_au_Maroc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,13 +562,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Facultés de médecine au Maroc</t>
+          <t>Déroulement des études</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Facultés publiques
-Facultés privées</t>
+          <t>Concours d'internat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les étudiants ayant réussi leur cinquième année et validé tous les stages peuvent passer le concours d'internat. Les internes valident deux années d'internat au CHU (quatre semestres : médecine, chirurgie, pédiatrie ou gynécologie obstétrique, stage de désidérata) à l'issue desquelles ils sont nommés résidents sur titre. Ils ont la priorité dans le choix de la spécialité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Études_de_médecine_au_Maroc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_m%C3%A9decine_au_Maroc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Concours de résidanat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les docteurs en médecine passent le concours de résidanat (qui a remplacé le DNS) et sont nommés résidents sur concours.
+La durée du résidanat varie de trois à cinq ans (3 ans la médecine du sport, 4 ans pour les spécialités médicales et la biologie, 5 ans pour les spécialités chirurgicales et la médecine interne).
+À la fin du résidanat un examen de fin de spécialité (le DSM) donne accès au diplôme de spécialité.
+La voie universitaire est accessible après la validation du résidanat et passage du concours de professeur assistant (anciennement réservé aux anciens internes et accessible actuellement aux deux voies).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Études_de_médecine_au_Maroc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tudes_de_m%C3%A9decine_au_Maroc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déroulement des études</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réforme de 2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À noter qu'une réforme des études médicale est actuellement débattue pour unifier les deux voies, revaloriser la médecine générale et créer des passerelles entre les filières (vu que dans le système actuel, le premier et le deuxième cycle ne donnent aucun débouché si on ne passe pas aux étapes suivantes jusqu'à la thèse de doctorat).
+</t>
         </is>
       </c>
     </row>
